--- a/test/fixtures/excel/sample.xlsx
+++ b/test/fixtures/excel/sample.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21520" tabRatio="500"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="67">
   <si>
     <t>Sample Excel document.</t>
   </si>
@@ -214,28 +214,26 @@
     <t>Table 26x1 sample:</t>
   </si>
   <si>
+    <t>Table 13x40 sample:</t>
+  </si>
+  <si>
     <t>Clipart sample:</t>
   </si>
   <si>
     <t>Shape sample:</t>
-  </si>
-  <si>
-    <t>Table 13x40 sample:</t>
-  </si>
-  <si>
-    <t>"Today's scientists have substituted mathematics for experiments, and they wander off through equation after equation, and eventually build a structure which has no relation to reality." --Nikola Tesla</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -262,12 +260,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -291,11 +283,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2987,8 +2978,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A6:C9" totalsRowShown="0">
-  <autoFilter ref="A6:C9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:C7" totalsRowShown="0">
+  <autoFilter ref="A4:C7"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="Column2"/>
@@ -2999,8 +2990,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A12:Z13" totalsRowShown="0">
-  <autoFilter ref="A12:Z13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A10:Z11" totalsRowShown="0">
+  <autoFilter ref="A10:Z11"/>
   <tableColumns count="26">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="Column2"/>
@@ -3034,8 +3025,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A16:M56" totalsRowShown="0">
-  <autoFilter ref="A16:M56"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A14:M54" totalsRowShown="0">
+  <autoFilter ref="A14:M54"/>
   <tableColumns count="13">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="Column2"/>
@@ -3377,10 +3368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z56"/>
+  <dimension ref="A1:Z54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3393,1913 +3384,1918 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1"/>
     </row>
-    <row r="3" spans="1:26" s="2" customFormat="1">
-      <c r="A3" s="3" t="s">
-        <v>67</v>
+    <row r="3" spans="1:26">
+      <c r="A3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:26">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:26">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
+      <c r="A9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" t="s">
+        <v>24</v>
+      </c>
+      <c r="P10" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>26</v>
+      </c>
+      <c r="R10" t="s">
+        <v>27</v>
+      </c>
+      <c r="S10" t="s">
+        <v>28</v>
+      </c>
+      <c r="T10" t="s">
+        <v>29</v>
+      </c>
+      <c r="U10" t="s">
+        <v>30</v>
+      </c>
+      <c r="V10" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" t="s">
+        <v>54</v>
+      </c>
+      <c r="X10" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:26">
       <c r="A11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N12" t="s">
-        <v>23</v>
-      </c>
-      <c r="O12" t="s">
-        <v>24</v>
-      </c>
-      <c r="P12" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>26</v>
-      </c>
-      <c r="R12" t="s">
-        <v>27</v>
-      </c>
-      <c r="S12" t="s">
-        <v>28</v>
-      </c>
-      <c r="T12" t="s">
-        <v>29</v>
-      </c>
-      <c r="U12" t="s">
-        <v>30</v>
-      </c>
-      <c r="V12" t="s">
-        <v>31</v>
-      </c>
-      <c r="W12" t="s">
-        <v>54</v>
-      </c>
-      <c r="X12" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>59</v>
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" t="s">
+        <v>44</v>
+      </c>
+      <c r="N11" t="s">
+        <v>45</v>
+      </c>
+      <c r="O11" t="s">
+        <v>46</v>
+      </c>
+      <c r="P11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>48</v>
+      </c>
+      <c r="R11" t="s">
+        <v>49</v>
+      </c>
+      <c r="S11" t="s">
+        <v>50</v>
+      </c>
+      <c r="T11" t="s">
+        <v>51</v>
+      </c>
+      <c r="U11" t="s">
+        <v>52</v>
+      </c>
+      <c r="V11" t="s">
+        <v>53</v>
+      </c>
+      <c r="W11" t="s">
+        <v>57</v>
+      </c>
+      <c r="X11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:26">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" t="s">
-        <v>40</v>
-      </c>
-      <c r="J13" t="s">
-        <v>41</v>
-      </c>
-      <c r="K13" t="s">
-        <v>42</v>
-      </c>
-      <c r="L13" t="s">
-        <v>43</v>
-      </c>
-      <c r="M13" t="s">
-        <v>44</v>
-      </c>
-      <c r="N13" t="s">
-        <v>45</v>
-      </c>
-      <c r="O13" t="s">
-        <v>46</v>
-      </c>
-      <c r="P13" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>48</v>
-      </c>
-      <c r="R13" t="s">
-        <v>49</v>
-      </c>
-      <c r="S13" t="s">
-        <v>50</v>
-      </c>
-      <c r="T13" t="s">
-        <v>51</v>
-      </c>
-      <c r="U13" t="s">
-        <v>52</v>
-      </c>
-      <c r="V13" t="s">
-        <v>53</v>
-      </c>
-      <c r="W13" t="s">
-        <v>57</v>
-      </c>
-      <c r="X13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>61</v>
+      <c r="A13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" t="s">
-        <v>66</v>
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>6</v>
+      </c>
+      <c r="G15">
+        <v>7</v>
+      </c>
+      <c r="H15">
+        <v>8</v>
+      </c>
+      <c r="I15">
+        <v>9</v>
+      </c>
+      <c r="J15">
+        <v>10</v>
+      </c>
+      <c r="K15">
+        <v>11</v>
+      </c>
+      <c r="L15">
+        <v>12</v>
+      </c>
+      <c r="M15">
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="A16">
         <v>14</v>
       </c>
-      <c r="F16" t="s">
+      <c r="B16">
         <v>15</v>
       </c>
-      <c r="G16" t="s">
+      <c r="C16">
         <v>16</v>
       </c>
-      <c r="H16" t="s">
+      <c r="D16">
         <v>17</v>
       </c>
-      <c r="I16" t="s">
+      <c r="E16">
         <v>18</v>
       </c>
-      <c r="J16" t="s">
+      <c r="F16">
         <v>19</v>
       </c>
-      <c r="K16" t="s">
+      <c r="G16">
         <v>20</v>
       </c>
-      <c r="L16" t="s">
+      <c r="H16">
         <v>21</v>
       </c>
-      <c r="M16" t="s">
+      <c r="I16">
         <v>22</v>
+      </c>
+      <c r="J16">
+        <v>23</v>
+      </c>
+      <c r="K16">
+        <v>24</v>
+      </c>
+      <c r="L16">
+        <v>25</v>
+      </c>
+      <c r="M16">
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="E17">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="F17">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="G17">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="H17">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="I17">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="J17">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="K17">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="L17">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="M17">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B18">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C18">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="D18">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="E18">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="F18">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="G18">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H18">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I18">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="J18">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="K18">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="L18">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="M18">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="B19">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="C19">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="D19">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="E19">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="F19">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="G19">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="H19">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="I19">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="J19">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="K19">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="L19">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="M19">
-        <v>39</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="B20">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="C20">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="D20">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="E20">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="F20">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="G20">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="H20">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="I20">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="J20">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="K20">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="L20">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="M20">
-        <v>52</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="B21">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="C21">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="D21">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="E21">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="F21">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="G21">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="H21">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="I21">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="J21">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="K21">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="L21">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="M21">
-        <v>65</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="B22">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="C22">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="D22">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="E22">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="F22">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="G22">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="H22">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="I22">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="J22">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="K22">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="L22">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="M22">
-        <v>78</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="B23">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="C23">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="D23">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="E23">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="F23">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="G23">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="H23">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="I23">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="J23">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="K23">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="L23">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="M23">
-        <v>91</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="B24">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="C24">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="D24">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="E24">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="F24">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="G24">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="H24">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="I24">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="J24">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="K24">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="L24">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="M24">
-        <v>104</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="B25">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="C25">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="D25">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="E25">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="F25">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="G25">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="H25">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="I25">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="J25">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="K25">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="L25">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="M25">
-        <v>117</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="B26">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="C26">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="D26">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="E26">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="F26">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="G26">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="H26">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="I26">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="J26">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="K26">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="L26">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="M26">
-        <v>130</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="B27">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="C27">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="D27">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="E27">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="F27">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="G27">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="H27">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="I27">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="J27">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="K27">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="L27">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="M27">
-        <v>143</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="B28">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="C28">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="D28">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="E28">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="F28">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="G28">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="H28">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="I28">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="J28">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="K28">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="L28">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="M28">
-        <v>156</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="B29">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="C29">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="D29">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="E29">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="F29">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="G29">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="H29">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="I29">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="J29">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="K29">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="L29">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="M29">
-        <v>169</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="B30">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="C30">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="D30">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="E30">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="F30">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="G30">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="H30">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="I30">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="J30">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="K30">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="L30">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="M30">
-        <v>182</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="B31">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="C31">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="D31">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="E31">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="F31">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="G31">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="H31">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="I31">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="J31">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="K31">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="L31">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="M31">
-        <v>195</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="B32">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="C32">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D32">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="E32">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="F32">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="G32">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="H32">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="I32">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="J32">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="K32">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="L32">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="M32">
-        <v>208</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="B33">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="C33">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="D33">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="E33">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="F33">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="G33">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="H33">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="I33">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="J33">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="K33">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="L33">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="M33">
-        <v>221</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="B34">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="C34">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="D34">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="E34">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="F34">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="G34">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="H34">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="I34">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="J34">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="K34">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="L34">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="M34">
-        <v>234</v>
+        <v>260</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="B35">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="C35">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="D35">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="E35">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="F35">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="G35">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="H35">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="I35">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="J35">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="K35">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="L35">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="M35">
-        <v>247</v>
+        <v>273</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="B36">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="C36">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="D36">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E36">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="F36">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="G36">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="H36">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="I36">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="J36">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="K36">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="L36">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="M36">
-        <v>260</v>
+        <v>286</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="B37">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="C37">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="D37">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="E37">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="F37">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="G37">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="H37">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="I37">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="J37">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="K37">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="L37">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="M37">
-        <v>273</v>
+        <v>299</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="B38">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="C38">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="D38">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="E38">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="F38">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="G38">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="H38">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="I38">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="J38">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="K38">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="L38">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="M38">
-        <v>286</v>
+        <v>312</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="B39">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="C39">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="D39">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="E39">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="F39">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="G39">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="H39">
-        <v>294</v>
+        <v>320</v>
       </c>
       <c r="I39">
-        <v>295</v>
+        <v>321</v>
       </c>
       <c r="J39">
-        <v>296</v>
+        <v>322</v>
       </c>
       <c r="K39">
-        <v>297</v>
+        <v>323</v>
       </c>
       <c r="L39">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="M39">
-        <v>299</v>
+        <v>325</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="B40">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="C40">
-        <v>302</v>
+        <v>328</v>
       </c>
       <c r="D40">
-        <v>303</v>
+        <v>329</v>
       </c>
       <c r="E40">
-        <v>304</v>
+        <v>330</v>
       </c>
       <c r="F40">
-        <v>305</v>
+        <v>331</v>
       </c>
       <c r="G40">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="H40">
-        <v>307</v>
+        <v>333</v>
       </c>
       <c r="I40">
-        <v>308</v>
+        <v>334</v>
       </c>
       <c r="J40">
-        <v>309</v>
+        <v>335</v>
       </c>
       <c r="K40">
-        <v>310</v>
+        <v>336</v>
       </c>
       <c r="L40">
-        <v>311</v>
+        <v>337</v>
       </c>
       <c r="M40">
-        <v>312</v>
+        <v>338</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41">
-        <v>313</v>
+        <v>339</v>
       </c>
       <c r="B41">
-        <v>314</v>
+        <v>340</v>
       </c>
       <c r="C41">
-        <v>315</v>
+        <v>341</v>
       </c>
       <c r="D41">
-        <v>316</v>
+        <v>342</v>
       </c>
       <c r="E41">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="F41">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="G41">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="H41">
-        <v>320</v>
+        <v>346</v>
       </c>
       <c r="I41">
-        <v>321</v>
+        <v>347</v>
       </c>
       <c r="J41">
-        <v>322</v>
+        <v>348</v>
       </c>
       <c r="K41">
-        <v>323</v>
+        <v>349</v>
       </c>
       <c r="L41">
-        <v>324</v>
+        <v>350</v>
       </c>
       <c r="M41">
-        <v>325</v>
+        <v>351</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="B42">
-        <v>327</v>
+        <v>353</v>
       </c>
       <c r="C42">
-        <v>328</v>
+        <v>354</v>
       </c>
       <c r="D42">
-        <v>329</v>
+        <v>355</v>
       </c>
       <c r="E42">
-        <v>330</v>
+        <v>356</v>
       </c>
       <c r="F42">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="G42">
-        <v>332</v>
+        <v>358</v>
       </c>
       <c r="H42">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="I42">
-        <v>334</v>
+        <v>360</v>
       </c>
       <c r="J42">
-        <v>335</v>
+        <v>361</v>
       </c>
       <c r="K42">
-        <v>336</v>
+        <v>362</v>
       </c>
       <c r="L42">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="M42">
-        <v>338</v>
+        <v>364</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43">
-        <v>339</v>
+        <v>365</v>
       </c>
       <c r="B43">
-        <v>340</v>
+        <v>366</v>
       </c>
       <c r="C43">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="D43">
-        <v>342</v>
+        <v>368</v>
       </c>
       <c r="E43">
-        <v>343</v>
+        <v>369</v>
       </c>
       <c r="F43">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="G43">
-        <v>345</v>
+        <v>371</v>
       </c>
       <c r="H43">
-        <v>346</v>
+        <v>372</v>
       </c>
       <c r="I43">
-        <v>347</v>
+        <v>373</v>
       </c>
       <c r="J43">
-        <v>348</v>
+        <v>374</v>
       </c>
       <c r="K43">
-        <v>349</v>
+        <v>375</v>
       </c>
       <c r="L43">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="M43">
-        <v>351</v>
+        <v>377</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="B44">
-        <v>353</v>
+        <v>379</v>
       </c>
       <c r="C44">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="D44">
-        <v>355</v>
+        <v>381</v>
       </c>
       <c r="E44">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="F44">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="G44">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="H44">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="I44">
-        <v>360</v>
+        <v>386</v>
       </c>
       <c r="J44">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="K44">
-        <v>362</v>
+        <v>388</v>
       </c>
       <c r="L44">
-        <v>363</v>
+        <v>389</v>
       </c>
       <c r="M44">
-        <v>364</v>
+        <v>390</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45">
-        <v>365</v>
+        <v>391</v>
       </c>
       <c r="B45">
-        <v>366</v>
+        <v>392</v>
       </c>
       <c r="C45">
-        <v>367</v>
+        <v>393</v>
       </c>
       <c r="D45">
-        <v>368</v>
+        <v>394</v>
       </c>
       <c r="E45">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="F45">
-        <v>370</v>
+        <v>396</v>
       </c>
       <c r="G45">
-        <v>371</v>
+        <v>397</v>
       </c>
       <c r="H45">
-        <v>372</v>
+        <v>398</v>
       </c>
       <c r="I45">
-        <v>373</v>
+        <v>399</v>
       </c>
       <c r="J45">
-        <v>374</v>
+        <v>400</v>
       </c>
       <c r="K45">
-        <v>375</v>
+        <v>401</v>
       </c>
       <c r="L45">
-        <v>376</v>
+        <v>402</v>
       </c>
       <c r="M45">
-        <v>377</v>
+        <v>403</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46">
-        <v>378</v>
+        <v>404</v>
       </c>
       <c r="B46">
-        <v>379</v>
+        <v>405</v>
       </c>
       <c r="C46">
-        <v>380</v>
+        <v>406</v>
       </c>
       <c r="D46">
-        <v>381</v>
+        <v>407</v>
       </c>
       <c r="E46">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="F46">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="G46">
-        <v>384</v>
+        <v>410</v>
       </c>
       <c r="H46">
-        <v>385</v>
+        <v>411</v>
       </c>
       <c r="I46">
-        <v>386</v>
+        <v>412</v>
       </c>
       <c r="J46">
-        <v>387</v>
+        <v>413</v>
       </c>
       <c r="K46">
-        <v>388</v>
+        <v>414</v>
       </c>
       <c r="L46">
-        <v>389</v>
+        <v>415</v>
       </c>
       <c r="M46">
-        <v>390</v>
+        <v>416</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47">
-        <v>391</v>
+        <v>417</v>
       </c>
       <c r="B47">
-        <v>392</v>
+        <v>418</v>
       </c>
       <c r="C47">
-        <v>393</v>
+        <v>419</v>
       </c>
       <c r="D47">
-        <v>394</v>
+        <v>420</v>
       </c>
       <c r="E47">
-        <v>395</v>
+        <v>421</v>
       </c>
       <c r="F47">
-        <v>396</v>
+        <v>422</v>
       </c>
       <c r="G47">
-        <v>397</v>
+        <v>423</v>
       </c>
       <c r="H47">
-        <v>398</v>
+        <v>424</v>
       </c>
       <c r="I47">
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="J47">
-        <v>400</v>
+        <v>426</v>
       </c>
       <c r="K47">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="L47">
-        <v>402</v>
+        <v>428</v>
       </c>
       <c r="M47">
-        <v>403</v>
+        <v>429</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48">
-        <v>404</v>
+        <v>430</v>
       </c>
       <c r="B48">
-        <v>405</v>
+        <v>431</v>
       </c>
       <c r="C48">
-        <v>406</v>
+        <v>432</v>
       </c>
       <c r="D48">
-        <v>407</v>
+        <v>433</v>
       </c>
       <c r="E48">
-        <v>408</v>
+        <v>434</v>
       </c>
       <c r="F48">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="G48">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="H48">
-        <v>411</v>
+        <v>437</v>
       </c>
       <c r="I48">
-        <v>412</v>
+        <v>438</v>
       </c>
       <c r="J48">
-        <v>413</v>
+        <v>439</v>
       </c>
       <c r="K48">
-        <v>414</v>
+        <v>440</v>
       </c>
       <c r="L48">
-        <v>415</v>
+        <v>441</v>
       </c>
       <c r="M48">
-        <v>416</v>
+        <v>442</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49">
-        <v>417</v>
+        <v>443</v>
       </c>
       <c r="B49">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="C49">
-        <v>419</v>
+        <v>445</v>
       </c>
       <c r="D49">
-        <v>420</v>
+        <v>446</v>
       </c>
       <c r="E49">
-        <v>421</v>
+        <v>447</v>
       </c>
       <c r="F49">
-        <v>422</v>
+        <v>448</v>
       </c>
       <c r="G49">
-        <v>423</v>
+        <v>449</v>
       </c>
       <c r="H49">
-        <v>424</v>
+        <v>450</v>
       </c>
       <c r="I49">
-        <v>425</v>
+        <v>451</v>
       </c>
       <c r="J49">
-        <v>426</v>
+        <v>452</v>
       </c>
       <c r="K49">
-        <v>427</v>
+        <v>453</v>
       </c>
       <c r="L49">
-        <v>428</v>
+        <v>454</v>
       </c>
       <c r="M49">
-        <v>429</v>
+        <v>455</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50">
-        <v>430</v>
+        <v>456</v>
       </c>
       <c r="B50">
-        <v>431</v>
+        <v>457</v>
       </c>
       <c r="C50">
-        <v>432</v>
+        <v>458</v>
       </c>
       <c r="D50">
-        <v>433</v>
+        <v>459</v>
       </c>
       <c r="E50">
-        <v>434</v>
+        <v>460</v>
       </c>
       <c r="F50">
-        <v>435</v>
+        <v>461</v>
       </c>
       <c r="G50">
-        <v>436</v>
+        <v>462</v>
       </c>
       <c r="H50">
-        <v>437</v>
+        <v>463</v>
       </c>
       <c r="I50">
-        <v>438</v>
+        <v>464</v>
       </c>
       <c r="J50">
-        <v>439</v>
+        <v>465</v>
       </c>
       <c r="K50">
-        <v>440</v>
+        <v>466</v>
       </c>
       <c r="L50">
-        <v>441</v>
+        <v>467</v>
       </c>
       <c r="M50">
-        <v>442</v>
+        <v>468</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51">
-        <v>443</v>
+        <v>469</v>
       </c>
       <c r="B51">
-        <v>444</v>
+        <v>470</v>
       </c>
       <c r="C51">
-        <v>445</v>
+        <v>471</v>
       </c>
       <c r="D51">
-        <v>446</v>
+        <v>472</v>
       </c>
       <c r="E51">
-        <v>447</v>
+        <v>473</v>
       </c>
       <c r="F51">
-        <v>448</v>
+        <v>474</v>
       </c>
       <c r="G51">
-        <v>449</v>
+        <v>475</v>
       </c>
       <c r="H51">
-        <v>450</v>
+        <v>476</v>
       </c>
       <c r="I51">
-        <v>451</v>
+        <v>477</v>
       </c>
       <c r="J51">
-        <v>452</v>
+        <v>478</v>
       </c>
       <c r="K51">
-        <v>453</v>
+        <v>479</v>
       </c>
       <c r="L51">
-        <v>454</v>
+        <v>480</v>
       </c>
       <c r="M51">
-        <v>455</v>
+        <v>481</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52">
-        <v>456</v>
+        <v>482</v>
       </c>
       <c r="B52">
-        <v>457</v>
+        <v>483</v>
       </c>
       <c r="C52">
-        <v>458</v>
+        <v>484</v>
       </c>
       <c r="D52">
-        <v>459</v>
+        <v>485</v>
       </c>
       <c r="E52">
-        <v>460</v>
+        <v>486</v>
       </c>
       <c r="F52">
-        <v>461</v>
+        <v>487</v>
       </c>
       <c r="G52">
-        <v>462</v>
+        <v>488</v>
       </c>
       <c r="H52">
-        <v>463</v>
+        <v>489</v>
       </c>
       <c r="I52">
-        <v>464</v>
+        <v>490</v>
       </c>
       <c r="J52">
-        <v>465</v>
+        <v>491</v>
       </c>
       <c r="K52">
-        <v>466</v>
+        <v>492</v>
       </c>
       <c r="L52">
-        <v>467</v>
+        <v>493</v>
       </c>
       <c r="M52">
-        <v>468</v>
+        <v>494</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53">
-        <v>469</v>
+        <v>495</v>
       </c>
       <c r="B53">
-        <v>470</v>
+        <v>496</v>
       </c>
       <c r="C53">
-        <v>471</v>
+        <v>497</v>
       </c>
       <c r="D53">
-        <v>472</v>
+        <v>498</v>
       </c>
       <c r="E53">
-        <v>473</v>
+        <v>499</v>
       </c>
       <c r="F53">
-        <v>474</v>
+        <v>500</v>
       </c>
       <c r="G53">
-        <v>475</v>
+        <v>501</v>
       </c>
       <c r="H53">
-        <v>476</v>
+        <v>502</v>
       </c>
       <c r="I53">
-        <v>477</v>
+        <v>503</v>
       </c>
       <c r="J53">
-        <v>478</v>
+        <v>504</v>
       </c>
       <c r="K53">
-        <v>479</v>
+        <v>505</v>
       </c>
       <c r="L53">
-        <v>480</v>
+        <v>506</v>
       </c>
       <c r="M53">
-        <v>481</v>
+        <v>507</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54">
-        <v>482</v>
+        <v>508</v>
       </c>
       <c r="B54">
-        <v>483</v>
+        <v>509</v>
       </c>
       <c r="C54">
-        <v>484</v>
+        <v>510</v>
       </c>
       <c r="D54">
-        <v>485</v>
+        <v>511</v>
       </c>
       <c r="E54">
-        <v>486</v>
+        <v>512</v>
       </c>
       <c r="F54">
-        <v>487</v>
+        <v>513</v>
       </c>
       <c r="G54">
-        <v>488</v>
+        <v>514</v>
       </c>
       <c r="H54">
-        <v>489</v>
+        <v>515</v>
       </c>
       <c r="I54">
-        <v>490</v>
+        <v>516</v>
       </c>
       <c r="J54">
-        <v>491</v>
+        <v>517</v>
       </c>
       <c r="K54">
-        <v>492</v>
+        <v>518</v>
       </c>
       <c r="L54">
-        <v>493</v>
+        <v>519</v>
       </c>
       <c r="M54">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
-      <c r="A55">
-        <v>495</v>
-      </c>
-      <c r="B55">
-        <v>496</v>
-      </c>
-      <c r="C55">
-        <v>497</v>
-      </c>
-      <c r="D55">
-        <v>498</v>
-      </c>
-      <c r="E55">
-        <v>499</v>
-      </c>
-      <c r="F55">
-        <v>500</v>
-      </c>
-      <c r="G55">
-        <v>501</v>
-      </c>
-      <c r="H55">
-        <v>502</v>
-      </c>
-      <c r="I55">
-        <v>503</v>
-      </c>
-      <c r="J55">
-        <v>504</v>
-      </c>
-      <c r="K55">
-        <v>505</v>
-      </c>
-      <c r="L55">
-        <v>506</v>
-      </c>
-      <c r="M55">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="A56">
-        <v>508</v>
-      </c>
-      <c r="B56">
-        <v>509</v>
-      </c>
-      <c r="C56">
-        <v>510</v>
-      </c>
-      <c r="D56">
-        <v>511</v>
-      </c>
-      <c r="E56">
-        <v>512</v>
-      </c>
-      <c r="F56">
-        <v>513</v>
-      </c>
-      <c r="G56">
-        <v>514</v>
-      </c>
-      <c r="H56">
-        <v>515</v>
-      </c>
-      <c r="I56">
-        <v>516</v>
-      </c>
-      <c r="J56">
-        <v>517</v>
-      </c>
-      <c r="K56">
-        <v>518</v>
-      </c>
-      <c r="L56">
-        <v>519</v>
-      </c>
-      <c r="M56">
         <v>520</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A13:B13"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <tableParts count="3">
@@ -5317,25 +5313,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A24"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>64</v>
-      </c>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="2"/>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>65</v>
-      </c>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
   <extLst>
